--- a/storage/template.xlsx
+++ b/storage/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="11535"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,13 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>PT. TORABIKA EKA SEMESTA 
 DIVISI GROUND COFFEE</t>
     </r>
@@ -51,9 +58,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
@@ -71,20 +78,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -101,6 +94,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -108,24 +116,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,89 +229,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -251,49 +258,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,133 +396,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,6 +485,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -489,6 +505,32 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,193 +564,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1061,15 +1071,182 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:N2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:N2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:14">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1085,8 +1262,9 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1100,172 +1278,12 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-    </row>
-  </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:M2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:M2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:M2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:M2"/>
+    <mergeCell ref="B1:N2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
